--- a/total_observations.xlsx
+++ b/total_observations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74044fd710fe3a3f/Documents/MSc EEC/Thesis/Results/all_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74044fd710fe3a3f/Documents/MSc EEC/Thesis/Results/all_analysis/Tyler_Christian_MSc_EEC_Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{92021466-AFF6-48FE-BEEA-159E84E570EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C8AEAE-3673-4BF4-8D10-26603FECB19E}"/>
@@ -205,10 +205,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
